--- a/candidate2.xlsx
+++ b/candidate2.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moogun\tech\230413_xing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC700967-C550-4870-9865-A14C589C6DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839BDAE-017B-4A40-9125-08E44851146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="1560" windowWidth="15390" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="915" windowWidth="10875" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
   <si>
     <t>shcode</t>
   </si>
@@ -422,6 +436,88 @@
   </si>
   <si>
     <t>how high from the lowest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. cut loss at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">price monitor and sell ? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">if price &gt; cut loss at, 
+1. don't sell,
+2. update cut loss at  
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else : 
+ sell (at market price)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+buy (shcode, price)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 계좌 예수금 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">network </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예수금 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cut loss 설정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidate 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 개별 종목 매수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실패 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. e 종목검색 5개 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">loop 5번 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 모니터 계속 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">잔고 기록 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,6 +666,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -873,402 +975,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD4DFEF-E072-41D0-96EC-AF68EEF29D75}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M3:M5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="9" width="9" style="2"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="17.625" customWidth="1"/>
+    <col min="10" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="M3" s="9" t="s">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="N3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M4" s="2" t="s">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M5" s="2" t="s">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M6" s="2" t="s">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="J8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <f>D9 - (D9*0.02)</f>
+        <v>8996.4</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="I10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
@@ -1276,28 +1461,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>15</v>
@@ -1305,28 +1490,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
@@ -1334,28 +1519,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
@@ -1363,28 +1548,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>15</v>
@@ -1392,28 +1577,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>15</v>
@@ -1421,28 +1606,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>15</v>
@@ -1450,30 +1635,59 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/candidate2.xlsx
+++ b/candidate2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moogun\tech\230413_xing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839BDAE-017B-4A40-9125-08E44851146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C0A8A-4898-4039-98FC-C2EEBCA17761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="915" windowWidth="10875" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="915" windowWidth="26865" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
@@ -668,7 +668,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -979,7 +979,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/candidate2.xlsx
+++ b/candidate2.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moogun\tech\230413_xing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C0A8A-4898-4039-98FC-C2EEBCA17761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63861B04-3005-4B87-998C-C7E1C7115501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="915" windowWidth="26865" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="585" windowWidth="26865" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>shcode</t>
   </si>
@@ -370,162 +369,13 @@
   </si>
   <si>
     <t>757022</t>
-  </si>
-  <si>
-    <t>bPower5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bPower1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bPower now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>highPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update the h price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">if bPower trend is up, 
-then buy, else no </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if diff is minus, 
-don't buy, remove from the candidate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. macro ? 장 분위기에 따라 한다/안한다, 베팅금액 높인다 줄인다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">tr candidate </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1310 당일전일 분틱조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2. 투자경고 매매정지 정리조회는 목록에서 제거 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">check if any in the list, is 매매정지 등, 
-but, does this matter ? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t1466 전일동시간대비 거래급증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell price (-2% from hPrice)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">buy </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>how high from the lowest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. cut loss at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">price monitor and sell ? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">if price &gt; cut loss at, 
-1. don't sell,
-2. update cut loss at  
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>else : 
- sell (at market price)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-buy (shcode, price)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 계좌 예수금 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">network </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예수금 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cut loss 설정 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>candidate 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 개별 종목 매수 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실패 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2. e 종목검색 5개 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">loop 5번 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4. 모니터 계속 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">잔고 기록 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,19 +394,6 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -567,15 +404,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -609,7 +437,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -632,47 +460,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,719 +778,536 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD4DFEF-E072-41D0-96EC-AF68EEF29D75}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P25"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="9" width="9" style="2"/>
-    <col min="10" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="2" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="N3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="K7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <f>D9 - (D9*0.02)</f>
-        <v>8996.4</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
